--- a/data/dataverse_relative.xlsx
+++ b/data/dataverse_relative.xlsx
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>16.67</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>16.67</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,31 +547,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
       <c r="D4">
-        <v>6.67</v>
+        <v>6.35</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>9.52</v>
       </c>
       <c r="F4">
-        <v>11.67</v>
+        <v>11.11</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>14.29</v>
       </c>
       <c r="I4">
-        <v>18.33</v>
+        <v>17.46</v>
       </c>
       <c r="J4">
-        <v>28.33</v>
+        <v>26.98</v>
       </c>
       <c r="K4">
-        <v>6.67</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,34 +579,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>4.86</v>
+        <v>4.57</v>
       </c>
       <c r="C5">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="D5">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="E5">
-        <v>5.41</v>
+        <v>5.08</v>
       </c>
       <c r="F5">
-        <v>6.49</v>
+        <v>6.09</v>
       </c>
       <c r="G5">
-        <v>14.05</v>
+        <v>13.2</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>18.78</v>
       </c>
       <c r="I5">
-        <v>23.78</v>
+        <v>22.34</v>
       </c>
       <c r="J5">
-        <v>19.46</v>
+        <v>18.27</v>
       </c>
       <c r="K5">
-        <v>3.24</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
